--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="410">
   <si>
     <t>あ</t>
   </si>
@@ -1351,7 +1351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1385,7 +1385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1393,19 +1393,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1422,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1439,6 +1480,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,9 +1843,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -1827,7 +1922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -1904,7 +1999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -1981,7 +2076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>331</v>
       </c>
@@ -2058,7 +2153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>341</v>
       </c>
@@ -2135,7 +2230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>349</v>
       </c>
@@ -2212,7 +2307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -2289,7 +2384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>367</v>
       </c>
@@ -2366,7 +2461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>376</v>
       </c>
@@ -2443,7 +2538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>384</v>
       </c>
@@ -2475,7 +2570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>386</v>
       </c>
@@ -2492,7 +2587,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -2539,7 +2634,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>152</v>
       </c>
@@ -2586,7 +2681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25">
       <c r="B15" t="s">
         <v>167</v>
       </c>
@@ -2633,7 +2728,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25">
       <c r="B16" t="s">
         <v>180</v>
       </c>
@@ -2680,7 +2775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:25">
       <c r="B17" t="s">
         <v>195</v>
       </c>
@@ -2727,7 +2822,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:25">
       <c r="B19" t="s">
         <v>210</v>
       </c>
@@ -2756,7 +2851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:25">
       <c r="B20" t="s">
         <v>219</v>
       </c>
@@ -2785,7 +2880,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:25">
       <c r="B21" t="s">
         <v>228</v>
       </c>
@@ -2814,7 +2909,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:25">
       <c r="B22" t="s">
         <v>237</v>
       </c>
@@ -2843,7 +2938,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:25">
       <c r="B23" t="s">
         <v>246</v>
       </c>
@@ -2872,7 +2967,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:25">
       <c r="B24" t="s">
         <v>255</v>
       </c>
@@ -2901,7 +2996,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:25">
       <c r="B25" t="s">
         <v>264</v>
       </c>
@@ -2930,7 +3025,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:25">
       <c r="B26" t="s">
         <v>273</v>
       </c>
@@ -2959,7 +3054,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:25">
       <c r="B27" t="s">
         <v>282</v>
       </c>
@@ -2988,7 +3083,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:25">
       <c r="B28" t="s">
         <v>291</v>
       </c>
@@ -3017,7 +3112,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:25">
       <c r="B29" t="s">
         <v>300</v>
       </c>
@@ -3055,48 +3150,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="3.375" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.25" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3.375" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.5" style="3" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.25" style="3" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="3.375" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="3.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.375" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.5" style="3" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="9.25" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="3.375" style="2" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="3.375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.375" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.5" style="3" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9.25" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="2"/>
+    <col min="31" max="31" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>317</v>
       </c>
@@ -3106,7 +3201,7 @@
       <c r="C1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -3119,13 +3214,13 @@
       <c r="G1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -3144,7 +3239,7 @@
       <c r="O1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -3163,7 +3258,7 @@
       <c r="U1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -3182,7 +3277,7 @@
       <c r="AA1" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AC1" s="3" t="s">
@@ -3192,81 +3287,124 @@
         <f>AC1&amp;" "&amp;Y1&amp;" "&amp;AA1</f>
         <v>ko 己 己</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:31" s="23" customFormat="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="13" t="str">
         <f>E2&amp;" "&amp;A2&amp;" "&amp;C2</f>
         <v xml:space="preserve">ga  </v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:L32" si="0">K2&amp;" "&amp;G2&amp;" "&amp;I2</f>
+      <c r="L2" s="13" t="str">
+        <f t="shared" ref="L2:L33" si="0">K2&amp;" "&amp;G2&amp;" "&amp;I2</f>
         <v xml:space="preserve">gi  </v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="3" t="str">
-        <f t="shared" ref="R2:R32" si="1">Q2&amp;" "&amp;M2&amp;" "&amp;O2</f>
+      <c r="R2" s="13" t="str">
+        <f t="shared" ref="R2:R33" si="1">Q2&amp;" "&amp;M2&amp;" "&amp;O2</f>
         <v xml:space="preserve">gu  </v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="X2" s="3" t="str">
+      <c r="X2" s="13" t="str">
         <f t="shared" ref="X2:X18" si="2">W2&amp;" "&amp;S2&amp;" "&amp;U2</f>
         <v xml:space="preserve">ge  </v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" s="3" t="str">
+      <c r="AD2" s="13" t="str">
         <f t="shared" ref="AD2:AD19" si="3">AC2&amp;" "&amp;Y2&amp;" "&amp;AA2</f>
         <v xml:space="preserve">go  </v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" s="23" customFormat="1">
+      <c r="A3" s="1"/>
+      <c r="B3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="2"/>
+      <c r="T3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" s="23" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>324</v>
       </c>
@@ -3276,26 +3414,26 @@
       <c r="C4" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F32" si="4">E4&amp;" "&amp;A4&amp;" "&amp;C4</f>
+        <f t="shared" ref="F4:F33" si="4">E4&amp;" "&amp;A4&amp;" "&amp;C4</f>
         <v>sa 左 散</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -3314,7 +3452,7 @@
       <c r="O4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="Q4" s="3" t="s">
@@ -3333,7 +3471,7 @@
       <c r="U4" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="W4" s="3" t="s">
@@ -3352,7 +3490,7 @@
       <c r="AA4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="AC4" s="3" t="s">
@@ -3362,81 +3500,124 @@
         <f t="shared" si="3"/>
         <v>so 曾 曾</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="5" spans="1:31" s="23" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="13" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">za  </v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="3" t="str">
+      <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ji  </v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="R5" s="13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">zu  </v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" s="10"/>
+      <c r="T5" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" s="10"/>
+      <c r="V5" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X5" s="3" t="str">
+      <c r="X5" s="13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">ze  </v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AD5" s="3" t="str">
+      <c r="AD5" s="13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">zo  </v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE5" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" s="23" customFormat="1">
+      <c r="A6" s="1"/>
+      <c r="B6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="2"/>
+      <c r="T6"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" s="23" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>331</v>
       </c>
@@ -3446,7 +3627,7 @@
       <c r="C7" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3459,13 +3640,13 @@
       <c r="G7" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="20" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -3484,7 +3665,7 @@
       <c r="O7" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -3503,7 +3684,7 @@
       <c r="U7" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="W7" s="3" t="s">
@@ -3522,7 +3703,7 @@
       <c r="AA7" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="AC7" s="3" t="s">
@@ -3532,81 +3713,124 @@
         <f t="shared" si="3"/>
         <v>to 止 止</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="8" spans="1:31" s="23" customFormat="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="13" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">da  </v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="3" t="str">
+      <c r="L8" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ji  </v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" s="10"/>
+      <c r="P8" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R8" s="3" t="str">
+      <c r="R8" s="13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">zu  </v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" s="10"/>
+      <c r="V8" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="X8" s="3" t="str">
+      <c r="X8" s="13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">de  </v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" s="3" t="str">
+      <c r="AD8" s="13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">do  </v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AE8" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" s="23" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="2"/>
+      <c r="T9"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" s="23" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>349</v>
       </c>
@@ -3616,7 +3840,7 @@
       <c r="C10" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3629,13 +3853,13 @@
       <c r="G10" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="20" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -3654,7 +3878,7 @@
       <c r="O10" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="Q10" s="3" t="s">
@@ -3673,7 +3897,7 @@
       <c r="U10" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="W10" s="3" t="s">
@@ -3692,7 +3916,7 @@
       <c r="AA10" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="4" t="s">
         <v>88</v>
       </c>
       <c r="AC10" s="3" t="s">
@@ -3702,248 +3926,302 @@
         <f t="shared" si="3"/>
         <v>ho 保 保</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="11" spans="1:31" s="23" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="13" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">ba  </v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="L11" s="3" t="str">
+      <c r="L11" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bi  </v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" s="10"/>
+      <c r="N11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="R11" s="3" t="str">
+      <c r="R11" s="13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">bu  </v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" s="10"/>
+      <c r="V11" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="X11" s="3" t="str">
+      <c r="X11" s="13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">be  </v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC11" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="AD11" s="3" t="str">
+      <c r="AD11" s="13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">bo  </v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE11" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="12" spans="1:31" s="23" customFormat="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="17" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">pa  </v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="str">
+      <c r="L12" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pi  </v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P12" t="s">
+      <c r="O12" s="14"/>
+      <c r="P12" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="R12" s="3" t="str">
+      <c r="R12" s="17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">pu  </v>
       </c>
-      <c r="T12" t="s">
+      <c r="S12" s="14"/>
+      <c r="T12" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="V12" t="s">
+      <c r="U12" s="14"/>
+      <c r="V12" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="X12" s="3" t="str">
+      <c r="X12" s="17" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">pe  </v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AC12" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AD12" s="3" t="str">
+      <c r="AD12" s="17" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">po  </v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AE12" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:31" s="23" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="2"/>
+      <c r="T13"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" s="23" customFormat="1">
+      <c r="A14" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="9" t="str">
         <f t="shared" si="4"/>
         <v>a 安 阿</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3" t="str">
+      <c r="L14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>i 以 伊</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="str">
+      <c r="R14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>u 宇 宇</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="3" t="str">
+      <c r="X14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>e 衣 江</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Y14" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD14" s="3" t="str">
+      <c r="AD14" s="9" t="str">
         <f t="shared" si="3"/>
         <v>o 於 於</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>341</v>
       </c>
@@ -3953,7 +4231,7 @@
       <c r="C15" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3966,13 +4244,13 @@
       <c r="G15" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="18" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -3991,7 +4269,7 @@
       <c r="O15" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="4" t="s">
         <v>67</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -4010,7 +4288,7 @@
       <c r="U15" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="W15" s="3" t="s">
@@ -4029,7 +4307,7 @@
       <c r="AA15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AC15" s="3" t="s">
@@ -4039,11 +4317,11 @@
         <f t="shared" si="3"/>
         <v>no 乃 乃</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AE15" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>376</v>
       </c>
@@ -4053,7 +4331,7 @@
       <c r="C16" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -4066,13 +4344,13 @@
       <c r="G16" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="20" t="s">
         <v>117</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -4091,7 +4369,7 @@
       <c r="O16" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="4" t="s">
         <v>121</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -4110,7 +4388,7 @@
       <c r="U16" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="4" t="s">
         <v>124</v>
       </c>
       <c r="W16" s="3" t="s">
@@ -4129,7 +4407,7 @@
       <c r="AA16" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="4" t="s">
         <v>127</v>
       </c>
       <c r="AC16" s="3" t="s">
@@ -4139,11 +4417,11 @@
         <f>AC16&amp;" "&amp;Y16&amp;" "&amp;AA16</f>
         <v>ro 吕 吕</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AE16" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
         <v>358</v>
       </c>
@@ -4153,7 +4431,7 @@
       <c r="C17" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4166,13 +4444,13 @@
       <c r="G17" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="20" t="s">
         <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>94</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -4191,7 +4469,7 @@
       <c r="O17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="Q17" s="3" t="s">
@@ -4210,7 +4488,7 @@
       <c r="U17" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="4" t="s">
         <v>100</v>
       </c>
       <c r="W17" s="3" t="s">
@@ -4229,7 +4507,7 @@
       <c r="AA17" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="AC17" s="3" t="s">
@@ -4239,11 +4517,11 @@
         <f t="shared" si="3"/>
         <v>mo 毛 毛</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AE17" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:31">
       <c r="A18" s="1" t="s">
         <v>367</v>
       </c>
@@ -4253,7 +4531,7 @@
       <c r="C18" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -4266,7 +4544,7 @@
       <c r="G18" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -4291,7 +4569,7 @@
       <c r="O18" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>109</v>
       </c>
       <c r="Q18" s="3" t="s">
@@ -4304,7 +4582,7 @@
       <c r="S18" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="U18" s="2" t="s">
@@ -4329,7 +4607,7 @@
       <c r="AA18" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="AC18" s="3" t="s">
@@ -4339,11 +4617,11 @@
         <f t="shared" si="3"/>
         <v>yo 与 与</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AE18" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
@@ -4353,7 +4631,7 @@
       <c r="C19" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -4372,7 +4650,7 @@
       <c r="AA19" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="4" t="s">
         <v>133</v>
       </c>
       <c r="AC19" s="3" t="s">
@@ -4383,7 +4661,7 @@
         <v>o 远 乎</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
         <v>386</v>
       </c>
@@ -4393,7 +4671,7 @@
       <c r="C20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4404,263 +4682,281 @@
         <v>n 无 尓</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31">
       <c r="F21" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31">
+      <c r="A22" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" ref="F22" si="5">E22&amp;" "&amp;A22&amp;" "&amp;C22</f>
+        <v>ya 也 也</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" ref="L22" si="6">K22&amp;" "&amp;G22&amp;" "&amp;I22</f>
+        <v>yu 由 由</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R22" s="3" t="str">
+        <f t="shared" ref="R22" si="7">Q22&amp;" "&amp;M22&amp;" "&amp;O22</f>
+        <v>yo 与 与</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="B23" t="s">
         <v>210</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F23" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">kya  </v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>213</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L22" s="3" t="str">
+      <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">kyu  </v>
       </c>
-      <c r="N22" t="s">
+      <c r="N23" t="s">
         <v>216</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P23" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R22" s="3" t="str">
+      <c r="R23" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">kyo  </v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="1:31">
+      <c r="B24" t="s">
         <v>219</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F24" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">gya  </v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>222</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J24" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L23" s="3" t="str">
+      <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">gyu  </v>
       </c>
-      <c r="N23" t="s">
+      <c r="N24" t="s">
         <v>225</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P24" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="R23" s="3" t="str">
+      <c r="R24" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gyo  </v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="1:31">
+      <c r="B25" t="s">
         <v>228</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F25" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">sha  </v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>231</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="3" t="str">
+      <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">shu  </v>
       </c>
-      <c r="N24" t="s">
+      <c r="N25" t="s">
         <v>234</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P25" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="3" t="str">
+      <c r="R25" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">sho  </v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="26" spans="1:31">
+      <c r="B26" t="s">
         <v>237</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F26" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">jya  </v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>240</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J26" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L25" s="3" t="str">
+      <c r="L26" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">jyu  </v>
       </c>
-      <c r="N25" t="s">
+      <c r="N26" t="s">
         <v>243</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P26" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="R25" s="3" t="str">
+      <c r="R26" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">jyo  </v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="1:31">
+      <c r="B27" t="s">
         <v>246</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F27" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">cha  </v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>249</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J27" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L26" s="3" t="str">
+      <c r="L27" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">chu  </v>
       </c>
-      <c r="N26" t="s">
+      <c r="N27" t="s">
         <v>252</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P27" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="R26" s="3" t="str">
+      <c r="R27" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">cho  </v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">nya  </v>
-      </c>
-      <c r="H27" t="s">
-        <v>258</v>
-      </c>
-      <c r="J27" t="s">
-        <v>259</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">nyu  </v>
-      </c>
-      <c r="N27" t="s">
-        <v>261</v>
-      </c>
-      <c r="P27" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">nyo  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31">
       <c r="B28" t="s">
         <v>264</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>265</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -4673,7 +4969,7 @@
       <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="4" t="s">
         <v>268</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -4686,7 +4982,7 @@
       <c r="N28" t="s">
         <v>270</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="4" t="s">
         <v>271</v>
       </c>
       <c r="Q28" s="3" t="s">
@@ -4697,11 +4993,11 @@
         <v xml:space="preserve">hyo  </v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31">
       <c r="B29" t="s">
         <v>273</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>274</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -4714,7 +5010,7 @@
       <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="4" t="s">
         <v>277</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -4727,7 +5023,7 @@
       <c r="N29" t="s">
         <v>279</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="4" t="s">
         <v>280</v>
       </c>
       <c r="Q29" s="3" t="s">
@@ -4738,11 +5034,11 @@
         <v xml:space="preserve">byo  </v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31">
       <c r="B30" t="s">
         <v>282</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -4755,7 +5051,7 @@
       <c r="H30" t="s">
         <v>285</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="4" t="s">
         <v>286</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -4768,7 +5064,7 @@
       <c r="N30" t="s">
         <v>288</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="4" t="s">
         <v>289</v>
       </c>
       <c r="Q30" s="3" t="s">
@@ -4779,86 +5075,127 @@
         <v xml:space="preserve">pyo  </v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:31">
       <c r="B31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>E31&amp;" "&amp;A31&amp;" "&amp;C31</f>
+        <v xml:space="preserve">nya  </v>
+      </c>
+      <c r="H31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f>K31&amp;" "&amp;G31&amp;" "&amp;I31</f>
+        <v xml:space="preserve">nyu  </v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="R31" s="3" t="str">
+        <f>Q31&amp;" "&amp;M31&amp;" "&amp;O31</f>
+        <v xml:space="preserve">nyo  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="B32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f>E32&amp;" "&amp;A32&amp;" "&amp;C32</f>
+        <v xml:space="preserve">rya  </v>
+      </c>
+      <c r="H32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f>K32&amp;" "&amp;G32&amp;" "&amp;I32</f>
+        <v xml:space="preserve">ryu  </v>
+      </c>
+      <c r="N32" t="s">
+        <v>306</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R32" s="3" t="str">
+        <f>Q32&amp;" "&amp;M32&amp;" "&amp;O32</f>
+        <v xml:space="preserve">ryo  </v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" t="s">
         <v>291</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F33" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">mya  </v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>294</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J33" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L31" s="3" t="str">
+      <c r="L33" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">myu  </v>
       </c>
-      <c r="N31" t="s">
+      <c r="N33" t="s">
         <v>297</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P33" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="R31" s="3" t="str">
+      <c r="R33" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">myo  </v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D32" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F32" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">rya  </v>
-      </c>
-      <c r="H32" t="s">
-        <v>303</v>
-      </c>
-      <c r="J32" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">ryu  </v>
-      </c>
-      <c r="N32" t="s">
-        <v>306</v>
-      </c>
-      <c r="P32" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="R32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ryo  </v>
       </c>
     </row>
   </sheetData>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -3153,7 +3153,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3173,7 +3173,7 @@
     <col min="13" max="13" width="3.375" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" style="4" customWidth="1"/>
     <col min="17" max="17" width="4.5" style="3" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.25" style="3" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="3.375" style="2" hidden="1" customWidth="1"/>
@@ -3185,7 +3185,7 @@
     <col min="25" max="25" width="3.375" style="2" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="3.375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="3.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.375" style="4" customWidth="1"/>
     <col min="29" max="29" width="3.5" style="3" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9.25" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="1"/>

--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="15075" windowHeight="6945" activeTab="1"/>
   </bookViews>
@@ -1548,6 +1548,296 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!全部隱藏" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47626" y="38099"/>
+          <a:ext cx="809624" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>全部隱藏</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="[0]!全部顯示" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="323850"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>全部顯示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="[0]!顯示發音" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="619125"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>顯示發音</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="275717"/>
+    <xdr:sp macro="[0]!平假名" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="962025"/>
+          <a:ext cx="607859" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>平假名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="275717"/>
+    <xdr:sp macro="[0]!片假名" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="1276350"/>
+          <a:ext cx="607859" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>片假名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1837,6 +2127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3150,2050 +3441,2050 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE33"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A2:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="4.5" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.25" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.25" style="3" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.375" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="3.375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="3.5" style="3" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.25" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" customWidth="1"/>
+    <col min="16" max="16" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="4" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="3.375" customWidth="1"/>
+    <col min="22" max="22" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="3.375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="3.5" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.25" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="3.375" customWidth="1"/>
+    <col min="28" max="28" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="3.375" style="4" customWidth="1"/>
+    <col min="30" max="30" width="3.5" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.25" style="3" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:32">
+      <c r="B2" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="str">
-        <f>E1&amp;" "&amp;A1&amp;" "&amp;C1</f>
+      <c r="G2" s="3" t="str">
+        <f>F2&amp;" "&amp;B2&amp;" "&amp;D2</f>
         <v>ka 加 加</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="str">
-        <f>K1&amp;" "&amp;G1&amp;" "&amp;I1</f>
+      <c r="M2" s="3" t="str">
+        <f>L2&amp;" "&amp;H2&amp;" "&amp;J2</f>
         <v>ki 幾 幾</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="str">
-        <f>Q1&amp;" "&amp;M1&amp;" "&amp;O1</f>
+      <c r="S2" s="3" t="str">
+        <f>R2&amp;" "&amp;N2&amp;" "&amp;P2</f>
         <v>ku 久 久</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="3" t="str">
-        <f>W1&amp;" "&amp;S1&amp;" "&amp;U1</f>
+      <c r="Y2" s="3" t="str">
+        <f>X2&amp;" "&amp;T2&amp;" "&amp;V2</f>
         <v>ke 計 介</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA2" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="3" t="str">
-        <f>AC1&amp;" "&amp;Y1&amp;" "&amp;AA1</f>
+      <c r="AE2" s="3" t="str">
+        <f>AD2&amp;" "&amp;Z2&amp;" "&amp;AB2</f>
         <v>ko 己 己</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="23" customFormat="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="2:32" s="23" customFormat="1">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="13" t="str">
-        <f>E2&amp;" "&amp;A2&amp;" "&amp;C2</f>
+      <c r="G3" s="13" t="str">
+        <f>F3&amp;" "&amp;B3&amp;" "&amp;D3</f>
         <v xml:space="preserve">ga  </v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="19" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="13" t="str">
-        <f t="shared" ref="L2:L33" si="0">K2&amp;" "&amp;G2&amp;" "&amp;I2</f>
+      <c r="M3" s="13" t="str">
+        <f t="shared" ref="M3:M34" si="0">L3&amp;" "&amp;H3&amp;" "&amp;J3</f>
         <v xml:space="preserve">gi  </v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="12" t="s">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="13" t="str">
-        <f t="shared" ref="R2:R33" si="1">Q2&amp;" "&amp;M2&amp;" "&amp;O2</f>
+      <c r="S3" s="13" t="str">
+        <f t="shared" ref="S3:S34" si="1">R3&amp;" "&amp;N3&amp;" "&amp;P3</f>
         <v xml:space="preserve">gu  </v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="11" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="12" t="s">
+      <c r="V3" s="10"/>
+      <c r="W3" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="X2" s="13" t="str">
-        <f t="shared" ref="X2:X18" si="2">W2&amp;" "&amp;S2&amp;" "&amp;U2</f>
+      <c r="Y3" s="13" t="str">
+        <f t="shared" ref="Y3:Y19" si="2">X3&amp;" "&amp;T3&amp;" "&amp;V3</f>
         <v xml:space="preserve">ge  </v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="11" t="s">
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="12" t="s">
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" s="13" t="str">
-        <f t="shared" ref="AD2:AD19" si="3">AC2&amp;" "&amp;Y2&amp;" "&amp;AA2</f>
+      <c r="AE3" s="13" t="str">
+        <f t="shared" ref="AE3:AE20" si="3">AD3&amp;" "&amp;Z3&amp;" "&amp;AB3</f>
         <v xml:space="preserve">go  </v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="23" customFormat="1">
-      <c r="A3" s="1"/>
-      <c r="B3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="2"/>
-      <c r="T3"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" s="23" customFormat="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:32" s="23" customFormat="1">
+      <c r="B4" s="1"/>
+      <c r="C4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="2"/>
+      <c r="U4"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="2:32" s="23" customFormat="1">
+      <c r="B5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F33" si="4">E4&amp;" "&amp;A4&amp;" "&amp;C4</f>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G34" si="4">F5&amp;" "&amp;B5&amp;" "&amp;D5</f>
         <v>sa 左 散</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="3" t="str">
+      <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>shi 之 之</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="3" t="str">
+      <c r="S5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>su 寸 须</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U5" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="3" t="str">
+      <c r="Y5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>se 世 世</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA5" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="3" t="str">
+      <c r="AE5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>so 曾 曾</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="23" customFormat="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+    <row r="6" spans="2:32" s="23" customFormat="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="G6" s="13" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">za  </v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="19" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="12" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="13" t="str">
+      <c r="M6" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ji  </v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="12" t="s">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R5" s="13" t="str">
+      <c r="S6" s="13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">zu  </v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11" t="s">
+      <c r="T6" s="10"/>
+      <c r="U6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="12" t="s">
+      <c r="V6" s="10"/>
+      <c r="W6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="X6" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="X5" s="13" t="str">
+      <c r="Y6" s="13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">ze  </v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="11" t="s">
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="12" t="s">
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AD6" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AD5" s="13" t="str">
+      <c r="AE6" s="13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">zo  </v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="23" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="2"/>
-      <c r="T6"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" s="23" customFormat="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:32" s="23" customFormat="1">
+      <c r="B7" s="1"/>
+      <c r="C7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+      <c r="U7"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="2:32" s="23" customFormat="1">
+      <c r="B8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ta 太 多</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="str">
+      <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>chi 知 千</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O8" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="3" t="str">
+      <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>tsu 川 川</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U8" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="3" t="str">
+      <c r="Y8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>te 天 天</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA8" t="s">
         <v>57</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD7" s="3" t="str">
+      <c r="AE8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>to 止 止</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="23" customFormat="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="9" spans="2:32" s="23" customFormat="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="G9" s="13" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">da  </v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="22" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="13" t="str">
+      <c r="M9" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ji  </v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="12" t="s">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R9" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="R8" s="13" t="str">
+      <c r="S9" s="13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">zu  </v>
       </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11" t="s">
+      <c r="T9" s="10"/>
+      <c r="U9" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="12" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="X9" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="X8" s="13" t="str">
+      <c r="Y9" s="13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">de  </v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11" t="s">
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="12" t="s">
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AD9" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" s="13" t="str">
+      <c r="AE9" s="13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">do  </v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="23" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="2"/>
-      <c r="T9"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" s="23" customFormat="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="2:32" s="23" customFormat="1">
+      <c r="B10" s="1"/>
+      <c r="C10"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+      <c r="U10"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="2:32" s="23" customFormat="1">
+      <c r="B11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="G11" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ha 波 八</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="3" t="str">
+      <c r="M11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>hi 比 比</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O11" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="S11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>fu 不 不</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U11" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="Y11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>he 部 部</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA11" t="s">
         <v>87</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AE11" s="3" t="str">
         <f t="shared" si="3"/>
         <v>ho 保 保</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="23" customFormat="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="2:32" s="23" customFormat="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="G12" s="13" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">ba  </v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="19" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L12" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="L11" s="13" t="str">
+      <c r="M12" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">bi  </v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11" t="s">
+      <c r="N12" s="10"/>
+      <c r="O12" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="12" t="s">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="R12" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="R11" s="13" t="str">
+      <c r="S12" s="13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">bu  </v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="11" t="s">
+      <c r="T12" s="10"/>
+      <c r="U12" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="12" t="s">
+      <c r="V12" s="10"/>
+      <c r="W12" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="X12" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="X11" s="13" t="str">
+      <c r="Y12" s="13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">be  </v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11" t="s">
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="12" t="s">
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AC11" s="13" t="s">
+      <c r="AD12" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="AD11" s="13" t="str">
+      <c r="AE12" s="13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">bo  </v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="23" customFormat="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+    <row r="13" spans="2:32" s="23" customFormat="1">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="G13" s="17" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">pa  </v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="16" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="M13" s="17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pi  </v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="16" t="s">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="R13" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="S13" s="17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">pu  </v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15" t="s">
+      <c r="T13" s="14"/>
+      <c r="U13" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="16" t="s">
+      <c r="V13" s="14"/>
+      <c r="W13" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="W12" s="17" t="s">
+      <c r="X13" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="Y13" s="17" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">pe  </v>
       </c>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15" t="s">
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="16" t="s">
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="AC12" s="17" t="s">
+      <c r="AD13" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="AD12" s="17" t="str">
+      <c r="AE13" s="17" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">po  </v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="23" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="2"/>
-      <c r="N13"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="2"/>
-      <c r="T13"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" s="23" customFormat="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="2:32" s="23" customFormat="1">
+      <c r="B14" s="1"/>
+      <c r="C14"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
+      <c r="U14"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="2:32" s="23" customFormat="1">
+      <c r="B15" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="9" t="str">
+      <c r="G15" s="9" t="str">
         <f t="shared" si="4"/>
         <v>a 安 阿</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="9" t="str">
+      <c r="M15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>i 以 伊</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="9" t="str">
+      <c r="S15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>u 宇 宇</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="U15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="V15" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="W15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="X15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="9" t="str">
+      <c r="Y15" s="9" t="str">
         <f t="shared" si="2"/>
         <v>e 衣 江</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Z15" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="AA15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AB15" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AB14" s="8" t="s">
+      <c r="AC15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC14" s="9" t="s">
+      <c r="AD15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD14" s="9" t="str">
+      <c r="AE15" s="9" t="str">
         <f t="shared" si="3"/>
         <v>o 於 於</v>
       </c>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1" t="s">
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="G16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>na 奈 奈</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="3" t="str">
+      <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ni 仁 仁</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="3" t="str">
+      <c r="S16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>nu 奴 奴</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U16" t="s">
         <v>69</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="X15" s="3" t="str">
+      <c r="Y16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ne 祢 祢</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA16" t="s">
         <v>72</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AD15" s="3" t="str">
+      <c r="AE16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>no 乃 乃</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="2:32">
+      <c r="B17" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="3" t="str">
-        <f>E16&amp;" "&amp;A16&amp;" "&amp;C16</f>
+      <c r="G17" s="3" t="str">
+        <f>F17&amp;" "&amp;B17&amp;" "&amp;D17</f>
         <v>ra 良 良</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="3" t="str">
-        <f>K16&amp;" "&amp;G16&amp;" "&amp;I16</f>
+      <c r="M17" s="3" t="str">
+        <f>L17&amp;" "&amp;H17&amp;" "&amp;J17</f>
         <v>ri 利 利</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O17" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="3" t="str">
-        <f>Q16&amp;" "&amp;M16&amp;" "&amp;O16</f>
+      <c r="S17" s="3" t="str">
+        <f>R17&amp;" "&amp;N17&amp;" "&amp;P17</f>
         <v>ru 留 流</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U17" t="s">
         <v>123</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X16" s="3" t="str">
-        <f>W16&amp;" "&amp;S16&amp;" "&amp;U16</f>
+      <c r="Y17" s="3" t="str">
+        <f>X17&amp;" "&amp;T17&amp;" "&amp;V17</f>
         <v>re 礼 礼</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA17" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AD16" s="3" t="str">
-        <f>AC16&amp;" "&amp;Y16&amp;" "&amp;AA16</f>
+      <c r="AE17" s="3" t="str">
+        <f>AD17&amp;" "&amp;Z17&amp;" "&amp;AB17</f>
         <v>ro 吕 吕</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="2:32">
+      <c r="B18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="G18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ma 末 矛</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="3" t="str">
+      <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mi 美 三</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O18" t="s">
         <v>96</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R17" s="3" t="str">
+      <c r="S18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>mu 武 牟</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U18" t="s">
         <v>99</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X17" s="3" t="str">
+      <c r="Y18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>me 女 女</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA18" t="s">
         <v>102</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AC18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" s="3" t="str">
+      <c r="AE18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>mo 毛 毛</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="2:32">
+      <c r="B19" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="G19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ya 也 也</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="3" t="str">
+      <c r="M19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>i 以 伊</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O19" t="s">
         <v>108</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="3" t="str">
+      <c r="S19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>yu 由 由</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X18" s="3" t="str">
+      <c r="Y19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>e 衣 江</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA19" t="s">
         <v>111</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AC19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AC18" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AD18" s="3" t="str">
+      <c r="AE19" s="3" t="str">
         <f t="shared" si="3"/>
         <v>yo 与 与</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="2:32">
+      <c r="B20" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="G20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>wa 和 和</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA20" t="s">
         <v>132</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="AB19" s="4" t="s">
+      <c r="AC20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD19" s="3" t="str">
+      <c r="AE20" s="3" t="str">
         <f t="shared" si="3"/>
         <v>o 远 乎</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="2:32">
+      <c r="B21" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="G21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>n 无 尓</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="F21" s="3" t="str">
+    <row r="22" spans="2:32">
+      <c r="G22" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="2:32">
+      <c r="B23" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="3" t="str">
-        <f t="shared" ref="F22" si="5">E22&amp;" "&amp;A22&amp;" "&amp;C22</f>
+      <c r="G23" s="3" t="str">
+        <f t="shared" ref="G23" si="5">F23&amp;" "&amp;B23&amp;" "&amp;D23</f>
         <v>ya 也 也</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I23" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="3" t="str">
-        <f t="shared" ref="L22" si="6">K22&amp;" "&amp;G22&amp;" "&amp;I22</f>
+      <c r="M23" s="3" t="str">
+        <f t="shared" ref="M23" si="6">L23&amp;" "&amp;H23&amp;" "&amp;J23</f>
         <v>yu 由 由</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O23" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R22" s="3" t="str">
-        <f t="shared" ref="R22" si="7">Q22&amp;" "&amp;M22&amp;" "&amp;O22</f>
+      <c r="S23" s="3" t="str">
+        <f t="shared" ref="S23" si="7">R23&amp;" "&amp;N23&amp;" "&amp;P23</f>
         <v>yo 与 与</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="B23" t="s">
+    <row r="24" spans="2:32">
+      <c r="C24" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="G24" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">kya  </v>
       </c>
-      <c r="H23" t="s">
+      <c r="I24" t="s">
         <v>213</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L23" s="3" t="str">
+      <c r="M24" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">kyu  </v>
       </c>
-      <c r="N23" t="s">
+      <c r="O24" t="s">
         <v>216</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R23" s="3" t="str">
+      <c r="S24" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">kyo  </v>
       </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="B24" t="s">
+    <row r="25" spans="2:32">
+      <c r="C25" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="G25" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">gya  </v>
       </c>
-      <c r="H24" t="s">
+      <c r="I25" t="s">
         <v>222</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L24" s="3" t="str">
+      <c r="M25" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">gyu  </v>
       </c>
-      <c r="N24" t="s">
+      <c r="O25" t="s">
         <v>225</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="R24" s="3" t="str">
+      <c r="S25" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">gyo  </v>
       </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="B25" t="s">
+    <row r="26" spans="2:32">
+      <c r="C26" t="s">
         <v>228</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="G26" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">sha  </v>
       </c>
-      <c r="H25" t="s">
+      <c r="I26" t="s">
         <v>231</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L25" s="3" t="str">
+      <c r="M26" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">shu  </v>
       </c>
-      <c r="N25" t="s">
+      <c r="O26" t="s">
         <v>234</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="R25" s="3" t="str">
+      <c r="S26" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">sho  </v>
       </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="B26" t="s">
+    <row r="27" spans="2:32">
+      <c r="C27" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="G27" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">jya  </v>
       </c>
-      <c r="H26" t="s">
+      <c r="I27" t="s">
         <v>240</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L26" s="3" t="str">
+      <c r="M27" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">jyu  </v>
       </c>
-      <c r="N26" t="s">
+      <c r="O27" t="s">
         <v>243</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="R26" s="3" t="str">
+      <c r="S27" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">jyo  </v>
       </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="B27" t="s">
+    <row r="28" spans="2:32">
+      <c r="C28" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="G28" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">cha  </v>
       </c>
-      <c r="H27" t="s">
+      <c r="I28" t="s">
         <v>249</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L27" s="3" t="str">
+      <c r="M28" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">chu  </v>
       </c>
-      <c r="N27" t="s">
+      <c r="O28" t="s">
         <v>252</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="R27" s="3" t="str">
+      <c r="S28" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">cho  </v>
       </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="B28" t="s">
+    <row r="29" spans="2:32">
+      <c r="C29" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="G29" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">hya  </v>
       </c>
-      <c r="H28" t="s">
+      <c r="I29" t="s">
         <v>267</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L28" s="3" t="str">
+      <c r="M29" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">hyu  </v>
       </c>
-      <c r="N28" t="s">
+      <c r="O29" t="s">
         <v>270</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R28" s="3" t="str">
+      <c r="S29" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">hyo  </v>
       </c>
     </row>
-    <row r="29" spans="1:31">
-      <c r="B29" t="s">
+    <row r="30" spans="2:32">
+      <c r="C30" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="G30" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">bya  </v>
       </c>
-      <c r="H29" t="s">
+      <c r="I30" t="s">
         <v>276</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="L29" s="3" t="str">
+      <c r="M30" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">byu  </v>
       </c>
-      <c r="N29" t="s">
+      <c r="O30" t="s">
         <v>279</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R29" s="3" t="str">
+      <c r="S30" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">byo  </v>
       </c>
     </row>
-    <row r="30" spans="1:31">
-      <c r="B30" t="s">
+    <row r="31" spans="2:32">
+      <c r="C31" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="G31" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">pya  </v>
       </c>
-      <c r="H30" t="s">
+      <c r="I31" t="s">
         <v>285</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="L30" s="3" t="str">
+      <c r="M31" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">pyu  </v>
       </c>
-      <c r="N30" t="s">
+      <c r="O31" t="s">
         <v>288</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="R30" s="3" t="str">
+      <c r="S31" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">pyo  </v>
       </c>
     </row>
-    <row r="31" spans="1:31">
-      <c r="B31" t="s">
+    <row r="32" spans="2:32">
+      <c r="C32" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F31" s="3" t="str">
-        <f>E31&amp;" "&amp;A31&amp;" "&amp;C31</f>
+      <c r="G32" s="3" t="str">
+        <f>F32&amp;" "&amp;B32&amp;" "&amp;D32</f>
         <v xml:space="preserve">nya  </v>
       </c>
-      <c r="H31" t="s">
+      <c r="I32" t="s">
         <v>258</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L31" s="3" t="str">
-        <f>K31&amp;" "&amp;G31&amp;" "&amp;I31</f>
+      <c r="M32" s="3" t="str">
+        <f>L32&amp;" "&amp;H32&amp;" "&amp;J32</f>
         <v xml:space="preserve">nyu  </v>
       </c>
-      <c r="N31" t="s">
+      <c r="O32" t="s">
         <v>261</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="R31" s="3" t="str">
-        <f>Q31&amp;" "&amp;M31&amp;" "&amp;O31</f>
+      <c r="S32" s="3" t="str">
+        <f>R32&amp;" "&amp;N32&amp;" "&amp;P32</f>
         <v xml:space="preserve">nyo  </v>
       </c>
     </row>
-    <row r="32" spans="1:31">
-      <c r="B32" t="s">
+    <row r="33" spans="3:19">
+      <c r="C33" t="s">
         <v>300</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F32" s="3" t="str">
-        <f>E32&amp;" "&amp;A32&amp;" "&amp;C32</f>
+      <c r="G33" s="3" t="str">
+        <f>F33&amp;" "&amp;B33&amp;" "&amp;D33</f>
         <v xml:space="preserve">rya  </v>
       </c>
-      <c r="H32" t="s">
+      <c r="I33" t="s">
         <v>303</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L32" s="3" t="str">
-        <f>K32&amp;" "&amp;G32&amp;" "&amp;I32</f>
+      <c r="M33" s="3" t="str">
+        <f>L33&amp;" "&amp;H33&amp;" "&amp;J33</f>
         <v xml:space="preserve">ryu  </v>
       </c>
-      <c r="N32" t="s">
+      <c r="O33" t="s">
         <v>306</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="R32" s="3" t="str">
-        <f>Q32&amp;" "&amp;M32&amp;" "&amp;O32</f>
+      <c r="S33" s="3" t="str">
+        <f>R33&amp;" "&amp;N33&amp;" "&amp;P33</f>
         <v xml:space="preserve">ryo  </v>
       </c>
     </row>
-    <row r="33" spans="2:18">
-      <c r="B33" t="s">
+    <row r="34" spans="3:19">
+      <c r="C34" t="s">
         <v>291</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="G34" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">mya  </v>
       </c>
-      <c r="H33" t="s">
+      <c r="I34" t="s">
         <v>294</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L33" s="3" t="str">
+      <c r="M34" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">myu  </v>
       </c>
-      <c r="N33" t="s">
+      <c r="O34" t="s">
         <v>297</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="R33" s="3" t="str">
+      <c r="S34" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">myo  </v>
       </c>
@@ -5202,5 +5493,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>